--- a/posesiones/1381250.xlsx
+++ b/posesiones/1381250.xlsx
@@ -1907,10 +1907,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>4</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>20</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>22</v>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>25</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>14</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21">
         <v>9</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R25">
         <v>24</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R28">
         <v>17</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R30">
         <v>20</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R32">
         <v>7</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R34">
         <v>17</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3589,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>19</v>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R40">
         <v>30</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3889,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R43">
         <v>27</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R48">
         <v>24</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R55">
         <v>14</v>
@@ -4518,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R56">
         <v>15</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R58">
         <v>6</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4768,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R61">
         <v>6</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4962,7 +4962,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R65">
         <v>9</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5062,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R71">
         <v>10</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5356,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R73">
         <v>10</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R76">
         <v>5</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R79">
         <v>9</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R81">
         <v>16</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5856,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R83">
         <v>18</v>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6056,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R87">
         <v>12</v>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6256,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R91">
         <v>18</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6356,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R93">
         <v>9</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R95">
         <v>6</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R97">
         <v>24</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6662,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R99">
         <v>12</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6765,7 +6765,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R101">
         <v>20</v>
@@ -6818,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6868,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R103">
         <v>19</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7197,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7626,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R119">
         <v>24</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7729,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R121">
         <v>20</v>
@@ -7779,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R124">
         <v>12</v>
@@ -7929,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R125">
         <v>19</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8020,10 +8020,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8252,10 +8252,10 @@
         <v>1</v>
       </c>
       <c r="P132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q132">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R133">
         <v>13</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8408,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R135">
         <v>10</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8511,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R137">
         <v>15</v>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8661,7 +8661,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R140">
         <v>10</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8761,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R142">
         <v>14</v>
@@ -8814,7 +8814,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R143">
         <v>16</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8914,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8961,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9058,7 +9058,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R148">
         <v>5</v>
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R149">
         <v>9</v>
@@ -9164,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R150">
         <v>24</v>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9361,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9552,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R158">
         <v>22</v>
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9693,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9743,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R162">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R163">
         <v>19</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9896,7 +9896,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R165">
         <v>8</v>
@@ -9946,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9996,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R167">
         <v>19</v>
@@ -10049,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R168">
         <v>12</v>
@@ -10102,7 +10102,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10149,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10202,7 +10202,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R171">
         <v>10</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10490,7 +10490,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R177">
         <v>15</v>
@@ -10540,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10637,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R180">
         <v>3</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10734,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R186">
         <v>8</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11028,7 +11028,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R188">
         <v>10</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11128,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R190">
         <v>6</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11228,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R192">
         <v>22</v>
@@ -11281,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11328,7 +11328,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11425,7 +11425,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R196">
         <v>14</v>
@@ -11478,7 +11478,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R197">
         <v>17</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11581,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R199">
         <v>16</v>
@@ -11631,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11681,7 +11681,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R201">
         <v>11</v>
@@ -11734,7 +11734,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R202">
         <v>20</v>
@@ -11784,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11828,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11922,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12016,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12063,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12210,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R212">
         <v>30</v>
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12310,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12357,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12454,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R217">
         <v>10</v>
@@ -12504,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12554,7 +12554,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R219">
         <v>9</v>
@@ -12604,7 +12604,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12654,7 +12654,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R221">
         <v>11</v>
@@ -12704,7 +12704,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12798,7 +12798,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12848,7 +12848,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R225">
         <v>30</v>
@@ -12898,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12948,7 +12948,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R227">
         <v>14</v>
@@ -13001,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13051,7 +13051,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R229">
         <v>11</v>
@@ -13098,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13242,7 +13242,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R233">
         <v>16</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R235">
         <v>22</v>
@@ -13392,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13439,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13583,7 +13583,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R240">
         <v>11</v>
@@ -13636,7 +13636,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R241">
         <v>14</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13739,7 +13739,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R243">
         <v>13</v>
@@ -13789,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13839,7 +13839,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R245">
         <v>5</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13939,7 +13939,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R247">
         <v>17</v>
@@ -13989,7 +13989,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14036,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14136,7 +14136,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R251">
         <v>30</v>
@@ -14189,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14239,7 +14239,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R253">
         <v>8</v>
@@ -14283,10 +14283,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q254">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14333,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14427,7 +14427,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14474,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14521,7 +14521,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14609,10 +14609,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q261">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14662,7 +14662,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R262">
         <v>10</v>
@@ -14715,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14765,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R264">
         <v>21</v>
@@ -14818,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R266">
         <v>16</v>
@@ -14918,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14965,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15012,7 +15012,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15109,7 +15109,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R271">
         <v>19</v>
@@ -15159,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15209,7 +15209,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R273">
         <v>10</v>
@@ -15259,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15309,7 +15309,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R275">
         <v>17</v>
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15409,7 +15409,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R277">
         <v>21</v>
@@ -15459,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15506,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15553,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15603,7 +15603,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R281">
         <v>16</v>
@@ -15653,7 +15653,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15703,7 +15703,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R283">
         <v>22</v>
@@ -15753,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15803,7 +15803,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R285">
         <v>12</v>
@@ -15856,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15906,7 +15906,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R287">
         <v>7</v>
@@ -15959,7 +15959,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R288">
         <v>24</v>
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16059,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16106,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16153,7 +16153,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16203,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R293">
         <v>15</v>
@@ -16256,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16306,7 +16306,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R295">
         <v>10</v>
@@ -16359,7 +16359,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16409,7 +16409,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R297">
         <v>11</v>
@@ -16459,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16509,7 +16509,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R299">
         <v>16</v>
@@ -16562,7 +16562,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16609,7 +16609,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16659,7 +16659,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16709,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R303">
         <v>17</v>
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16806,7 +16806,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16853,7 +16853,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16900,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16950,7 +16950,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R308">
         <v>12</v>
@@ -17003,7 +17003,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17053,7 +17053,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R310">
         <v>7</v>
@@ -17106,7 +17106,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17156,7 +17156,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R312">
         <v>9</v>
@@ -17206,7 +17206,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17253,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17397,7 +17397,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17444,7 +17444,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17491,7 +17491,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17538,7 +17538,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17588,7 +17588,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R321">
         <v>23</v>
@@ -17638,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17685,7 +17685,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17738,7 +17738,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R324">
         <v>10</v>
@@ -17788,7 +17788,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17838,7 +17838,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R326">
         <v>12</v>
@@ -17891,7 +17891,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R327">
         <v>11</v>
@@ -17944,7 +17944,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R328">
         <v>11</v>
@@ -17994,7 +17994,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18041,7 +18041,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18088,7 +18088,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18138,7 +18138,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R332">
         <v>27</v>
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18238,7 +18238,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R334">
         <v>5</v>
@@ -18288,7 +18288,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18338,7 +18338,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R336">
         <v>13</v>
@@ -18388,7 +18388,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18438,7 +18438,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R338">
         <v>4</v>
@@ -18485,7 +18485,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18535,7 +18535,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R340">
         <v>15</v>
@@ -18588,7 +18588,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18635,7 +18635,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18682,7 +18682,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18732,7 +18732,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R344">
         <v>22</v>
@@ -18785,7 +18785,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R345">
         <v>18</v>
@@ -18835,7 +18835,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18882,7 +18882,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18932,7 +18932,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R348">
         <v>8</v>
@@ -18985,7 +18985,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R349">
         <v>16</v>
@@ -19035,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19085,7 +19085,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R351">
         <v>18</v>
@@ -19138,7 +19138,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R352">
         <v>15</v>
@@ -19188,7 +19188,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19235,7 +19235,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19285,7 +19285,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19335,7 +19335,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R356">
         <v>24</v>
@@ -19388,7 +19388,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R357">
         <v>13</v>
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19491,7 +19491,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R359">
         <v>19</v>
@@ -19544,7 +19544,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19638,7 +19638,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19685,7 +19685,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19732,7 +19732,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19779,7 +19779,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19829,7 +19829,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R366">
         <v>18</v>
@@ -19879,7 +19879,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19932,7 +19932,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R368">
         <v>5</v>
@@ -19976,10 +19976,10 @@
         <v>1</v>
       </c>
       <c r="P369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q369">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20026,7 +20026,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20073,7 +20073,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20120,7 +20120,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20167,7 +20167,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20208,10 +20208,10 @@
         <v>1</v>
       </c>
       <c r="P374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q374">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20261,7 +20261,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R375">
         <v>23</v>
@@ -20314,7 +20314,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20364,7 +20364,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R377">
         <v>16</v>
@@ -20414,7 +20414,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20464,7 +20464,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R379">
         <v>16</v>
@@ -20514,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20564,7 +20564,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R381">
         <v>19</v>
@@ -20617,7 +20617,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20667,7 +20667,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R383">
         <v>10</v>
@@ -20717,7 +20717,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20764,7 +20764,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20811,7 +20811,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20858,7 +20858,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20905,7 +20905,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20952,7 +20952,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21002,7 +21002,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R390">
         <v>0</v>
@@ -21055,7 +21055,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21102,7 +21102,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21149,7 +21149,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21199,7 +21199,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R394">
         <v>31</v>
@@ -21249,7 +21249,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21299,7 +21299,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R396">
         <v>10</v>
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21396,7 +21396,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21446,7 +21446,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21496,7 +21496,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R400">
         <v>29</v>
@@ -21549,7 +21549,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R401">
         <v>6</v>
@@ -21602,7 +21602,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R402">
         <v>13</v>
@@ -21652,7 +21652,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21699,7 +21699,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21746,7 +21746,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21796,7 +21796,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R406">
         <v>29</v>
@@ -21846,7 +21846,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21940,7 +21940,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21987,7 +21987,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22034,7 +22034,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22081,7 +22081,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22128,7 +22128,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22175,7 +22175,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22225,7 +22225,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R415">
         <v>27</v>
@@ -22278,7 +22278,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R416">
         <v>17</v>
@@ -22328,7 +22328,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22378,7 +22378,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R418">
         <v>21</v>
@@ -22431,7 +22431,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22481,7 +22481,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R420">
         <v>7</v>
@@ -22528,7 +22528,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22575,7 +22575,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22622,7 +22622,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22669,7 +22669,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22719,7 +22719,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R425">
         <v>15</v>
@@ -22772,7 +22772,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22822,7 +22822,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R427">
         <v>20</v>
@@ -22875,7 +22875,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22922,7 +22922,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22972,7 +22972,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23022,7 +23022,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R431">
         <v>18</v>
@@ -23075,7 +23075,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23125,7 +23125,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R433">
         <v>25</v>
@@ -23175,7 +23175,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23225,7 +23225,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23319,7 +23319,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23366,7 +23366,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23416,7 +23416,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R439">
         <v>26</v>
@@ -23469,7 +23469,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R440">
         <v>19</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23569,7 +23569,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23616,7 +23616,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23666,7 +23666,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23716,7 +23716,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R445">
         <v>14</v>
@@ -23766,7 +23766,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23860,7 +23860,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23954,7 +23954,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24004,7 +24004,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R451">
         <v>26</v>
@@ -24057,7 +24057,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24151,7 +24151,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24198,7 +24198,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24248,7 +24248,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R456">
         <v>11</v>
@@ -24301,7 +24301,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R457">
         <v>16</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24401,7 +24401,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R459">
         <v>17</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24501,7 +24501,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24551,7 +24551,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R462">
         <v>9</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24654,7 +24654,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R464">
         <v>6</v>
@@ -24704,7 +24704,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24754,7 +24754,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R466">
         <v>24</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R468">
         <v>8</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24951,7 +24951,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25048,7 +25048,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R472">
         <v>31</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25145,7 +25145,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R474">
         <v>5</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25245,7 +25245,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25342,7 +25342,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25389,7 +25389,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25486,7 +25486,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R481">
         <v>26</v>
@@ -25539,7 +25539,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25586,7 +25586,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25680,7 +25680,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25777,7 +25777,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R487">
         <v>5</v>
@@ -25824,7 +25824,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25965,7 +25965,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26059,7 +26059,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26106,7 +26106,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26153,7 +26153,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26203,7 +26203,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R496">
         <v>1</v>
@@ -26256,7 +26256,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26306,7 +26306,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R498">
         <v>4</v>
@@ -26350,10 +26350,10 @@
         <v>1</v>
       </c>
       <c r="P499" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q499">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26394,7 +26394,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
